--- a/results/mp/logistic/corona/confidence/168/masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.2/avg_0.004_scores.xlsx
@@ -40,15 +40,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
@@ -58,15 +58,15 @@
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -85,21 +85,21 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -115,16 +115,22 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>special</t>
+    <t>safe</t>
   </si>
   <si>
     <t>thank</t>
@@ -133,64 +139,58 @@
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>increase</t>
   </si>
   <si>
     <t>you</t>
@@ -199,7 +199,7 @@
     <t>and</t>
   </si>
   <si>
-    <t>?</t>
+    <t>,</t>
   </si>
   <si>
     <t>corona</t>
@@ -571,7 +571,7 @@
         <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>29</v>
@@ -679,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8013698630136986</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="C4">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D4">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>31</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7567567567567568</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K7">
-        <v>0.8350785340314136</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L7">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>320</v>
+        <v>28</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.559322033898305</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K8">
-        <v>0.8181818181818182</v>
+        <v>0.835509138381201</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5490196078431373</v>
+        <v>0.5562015503875969</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5271317829457365</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C10">
-        <v>272</v>
+        <v>104</v>
       </c>
       <c r="D10">
-        <v>272</v>
+        <v>104</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5238095238095238</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C11">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4832214765100671</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C12">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3916666666666667</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="C14">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D14">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2777777777777778</v>
+        <v>0.3</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>41</v>
@@ -1279,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.253968253968254</v>
+        <v>0.25</v>
       </c>
       <c r="C16">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>0.76875</v>
+        <v>0.7625</v>
       </c>
       <c r="L16">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M16">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1353,13 +1353,13 @@
         <v>43</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,37 +1379,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01602023608768971</v>
+        <v>0.01679586563307494</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E18">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F18">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2334</v>
+        <v>3044</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>0.7605633802816901</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,37 +1429,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0145255003227889</v>
+        <v>0.01312447078746825</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E19">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="F19">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>3053</v>
+        <v>2331</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,37 +1479,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007450523864959255</v>
+        <v>0.007213881848313512</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D20">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E20">
+        <v>0.49</v>
+      </c>
+      <c r="F20">
         <v>0.51</v>
       </c>
-      <c r="F20">
-        <v>0.49</v>
-      </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>4263</v>
+        <v>5092</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>0.7291666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1529,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00726832222895215</v>
+        <v>0.006657252370385313</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>0.54</v>
@@ -1547,19 +1547,19 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>4917</v>
+        <v>4924</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>0.7209302325581395</v>
+        <v>0.6875</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,37 +1579,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006431494835314753</v>
+        <v>0.006510113926993723</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E22">
+        <v>0.49</v>
+      </c>
+      <c r="F22">
         <v>0.51</v>
       </c>
-      <c r="F22">
-        <v>0.49</v>
-      </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>5098</v>
+        <v>4273</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.675</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1629,13 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>0.6617647058823529</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L23">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M23">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1655,13 +1655,13 @@
         <v>50</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1681,13 +1681,13 @@
         <v>51</v>
       </c>
       <c r="K25">
-        <v>0.5957446808510638</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L25">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1707,13 +1707,13 @@
         <v>52</v>
       </c>
       <c r="K26">
-        <v>0.5898305084745763</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L26">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>121</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1733,13 +1733,13 @@
         <v>53</v>
       </c>
       <c r="K27">
-        <v>0.5774058577405857</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L27">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M27">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1759,13 +1759,13 @@
         <v>54</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.58</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1785,25 +1785,25 @@
         <v>55</v>
       </c>
       <c r="K29">
-        <v>0.5600000000000001</v>
+        <v>0.5782312925170068</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1811,13 +1811,13 @@
         <v>56</v>
       </c>
       <c r="K30">
-        <v>0.5056179775280899</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1837,25 +1837,25 @@
         <v>57</v>
       </c>
       <c r="K31">
-        <v>0.4901960784313725</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>25</v>
-      </c>
-      <c r="M31">
-        <v>25</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1863,13 +1863,13 @@
         <v>58</v>
       </c>
       <c r="K32">
-        <v>0.3835616438356164</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1889,25 +1889,25 @@
         <v>59</v>
       </c>
       <c r="K33">
-        <v>0.0342237061769616</v>
+        <v>0.04013377926421405</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1157</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1941,25 +1941,25 @@
         <v>61</v>
       </c>
       <c r="K35">
-        <v>0.01338912133891213</v>
+        <v>0.01028383381324558</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N35">
-        <v>0.89</v>
+        <v>0.64</v>
       </c>
       <c r="O35">
-        <v>0.11</v>
+        <v>0.36</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2358</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1967,25 +1967,25 @@
         <v>62</v>
       </c>
       <c r="K36">
-        <v>0.008796732642161484</v>
+        <v>0.009416195856873822</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N36">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="O36">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>3155</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1993,13 +1993,13 @@
         <v>26</v>
       </c>
       <c r="K37">
-        <v>0.008669354838709677</v>
+        <v>0.007858150312311102</v>
       </c>
       <c r="L37">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M37">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="N37">
         <v>0.54</v>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>4917</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2019,25 +2019,25 @@
         <v>25</v>
       </c>
       <c r="K38">
-        <v>0.007681564245810056</v>
+        <v>0.00702028081123245</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N38">
+        <v>0.49</v>
+      </c>
+      <c r="O38">
         <v>0.51</v>
       </c>
-      <c r="O38">
-        <v>0.49</v>
-      </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>4263</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2045,25 +2045,25 @@
         <v>27</v>
       </c>
       <c r="K39">
-        <v>0.006625097427903352</v>
+        <v>0.006279069767441861</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N39">
+        <v>0.49</v>
+      </c>
+      <c r="O39">
         <v>0.51</v>
       </c>
-      <c r="O39">
-        <v>0.49</v>
-      </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>5098</v>
+        <v>4273</v>
       </c>
     </row>
   </sheetData>
